--- a/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
+++ b/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FBE5C-91FE-43CB-88FA-4E097249AF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98E06E-AF73-43B6-B913-3EA21B0C7FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Sector</t>
   </si>
@@ -493,13 +493,28 @@
   </si>
   <si>
     <t>FFA48F</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ICC/master/CHILE/00%20Causas%20Antrop%C3%B3genas/DEFORESTATION.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ICC/master/CHILE/00%20Causas%20Antrop%C3%B3genas/FACTORY.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ICC/master/CHILE/00%20Causas%20Antrop%C3%B3genas/HILLS.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ICC/master/CHILE/00%20Causas%20Antrop%C3%B3genas/TRASH.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ICC/master/CHILE/00%20Causas%20Antrop%C3%B3genas/DIESEL.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +580,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="49">
     <fill>
@@ -879,11 +902,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1041,8 +1065,10 @@
     <xf numFmtId="0" fontId="3" fillId="48" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -1160,12 +1186,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2A46E06-165C-468D-A99A-F03426F8233F}" name="A_GAS_FUENTE_ACT" displayName="A_GAS_FUENTE_ACT" ref="F11:I44" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2A46E06-165C-468D-A99A-F03426F8233F}" name="A_GAS_FUENTE_ACT" displayName="A_GAS_FUENTE_ACT" ref="F11:I44" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="F11:I44" xr:uid="{63512443-C62C-40B5-9ECF-4007A8898D8C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0095B692-CBAF-4735-81F1-F054AEAF9E0B}" name="Gas de Efecto Invernadero" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C5DEA102-F34D-451E-AC44-80758EAB2B97}" name="Fuente" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{242FA882-3280-4656-A0AA-45262C1F6B52}" name="Actividad" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0095B692-CBAF-4735-81F1-F054AEAF9E0B}" name="Gas de Efecto Invernadero" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C5DEA102-F34D-451E-AC44-80758EAB2B97}" name="Fuente" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{242FA882-3280-4656-A0AA-45262C1F6B52}" name="Actividad" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{D345118D-751D-49B1-A1C1-A3A3AC13690C}" name="Imagen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1471,16 +1497,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B2366-7966-4E5A-8FC2-E2237C5ED9DD}">
   <dimension ref="A1:J3191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="52.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.77734375" bestFit="1" customWidth="1"/>
@@ -1526,6 +1550,9 @@
       <c r="C2" s="7" t="s">
         <v>108</v>
       </c>
+      <c r="D2" s="57" t="s">
+        <v>157</v>
+      </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -1549,6 +1576,9 @@
       <c r="C3" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="D3" s="57" t="s">
+        <v>154</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
@@ -1572,6 +1602,9 @@
       <c r="C4" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="D4" s="57" t="s">
+        <v>155</v>
+      </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
@@ -1595,6 +1628,9 @@
       <c r="C5" s="10" t="s">
         <v>111</v>
       </c>
+      <c r="D5" s="57" t="s">
+        <v>153</v>
+      </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
@@ -1618,6 +1654,9 @@
       <c r="C6" s="11" t="s">
         <v>112</v>
       </c>
+      <c r="D6" s="57" t="s">
+        <v>156</v>
+      </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
@@ -2548,12 +2587,19 @@
       <c r="G3191" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{EF526643-0B63-4057-BC96-F9E2EF77A99D}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{EC3E5898-988F-47BE-9205-04A623E7EE27}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{F8E66624-EB07-4331-B590-206378527CEE}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{DA40059D-F901-481F-8021-A4A3D40EEAE2}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{CA68A923-6D55-425D-89A5-60DEBD343927}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
+++ b/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98E06E-AF73-43B6-B913-3EA21B0C7FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91FC140-6459-4FA1-87DE-40A473AEEF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="163">
   <si>
     <t>Sector</t>
   </si>
@@ -75,9 +75,6 @@
     <t>2 - Procesos industriales y uso de productos</t>
   </si>
   <si>
-    <t>95A39D</t>
-  </si>
-  <si>
     <t>CH4</t>
   </si>
   <si>
@@ -360,141 +357,9 @@
     <t>5.E - Otros</t>
   </si>
   <si>
-    <t>A5C131</t>
-  </si>
-  <si>
-    <t>7DB8DB</t>
-  </si>
-  <si>
-    <t>DBA5BF</t>
-  </si>
-  <si>
-    <t>DBDB46</t>
-  </si>
-  <si>
-    <t>B29E74</t>
-  </si>
-  <si>
-    <t>BDD35B</t>
-  </si>
-  <si>
-    <t>B5CFE3</t>
-  </si>
-  <si>
-    <t>EFC3D6</t>
-  </si>
-  <si>
-    <t>ECE763</t>
-  </si>
-  <si>
-    <t>CBBB8E</t>
-  </si>
-  <si>
-    <t>43AB4A</t>
-  </si>
-  <si>
-    <t>4690C5</t>
-  </si>
-  <si>
-    <t>E69CBA</t>
-  </si>
-  <si>
-    <t>EBAF48</t>
-  </si>
-  <si>
-    <t>AA8C60</t>
-  </si>
-  <si>
     <t>Color Letra</t>
   </si>
   <si>
-    <t>BDA96F</t>
-  </si>
-  <si>
-    <t>AC934E</t>
-  </si>
-  <si>
-    <t>87743D</t>
-  </si>
-  <si>
-    <t>E8E040</t>
-  </si>
-  <si>
-    <t>E3D91B</t>
-  </si>
-  <si>
-    <t>C6BE18</t>
-  </si>
-  <si>
-    <t>9D9613</t>
-  </si>
-  <si>
-    <t>7B760F</t>
-  </si>
-  <si>
-    <t>69650D</t>
-  </si>
-  <si>
-    <t>9EB832</t>
-  </si>
-  <si>
-    <t>95BBD7</t>
-  </si>
-  <si>
-    <t>77A7CB</t>
-  </si>
-  <si>
-    <t>508EBC</t>
-  </si>
-  <si>
-    <t>3D76A1</t>
-  </si>
-  <si>
-    <t>376A91</t>
-  </si>
-  <si>
-    <t>2F5C7D</t>
-  </si>
-  <si>
-    <t>E7A3C0</t>
-  </si>
-  <si>
-    <t>E088AE</t>
-  </si>
-  <si>
-    <t>D96D9B</t>
-  </si>
-  <si>
-    <t>D4588D</t>
-  </si>
-  <si>
-    <t>CD3B7A</t>
-  </si>
-  <si>
-    <t>C1316F</t>
-  </si>
-  <si>
-    <t>A82A60</t>
-  </si>
-  <si>
-    <t>7B1F46</t>
-  </si>
-  <si>
-    <t>EA430A</t>
-  </si>
-  <si>
-    <t>A5CD00</t>
-  </si>
-  <si>
-    <t>4472C4</t>
-  </si>
-  <si>
-    <t>660066</t>
-  </si>
-  <si>
-    <t>FFA48F</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ICC/master/CHILE/00%20Causas%20Antrop%C3%B3genas/DEFORESTATION.png</t>
   </si>
   <si>
@@ -508,6 +373,156 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ICC/master/CHILE/00%20Causas%20Antrop%C3%B3genas/DIESEL.png</t>
+  </si>
+  <si>
+    <t>#A5C131</t>
+  </si>
+  <si>
+    <t>#7DB8DB</t>
+  </si>
+  <si>
+    <t>#DBA5BF</t>
+  </si>
+  <si>
+    <t>#DBDB46</t>
+  </si>
+  <si>
+    <t>#B29E74</t>
+  </si>
+  <si>
+    <t>#95A39D</t>
+  </si>
+  <si>
+    <t>#4472C4</t>
+  </si>
+  <si>
+    <t>#EA430A</t>
+  </si>
+  <si>
+    <t>#660066</t>
+  </si>
+  <si>
+    <t>#FFA48F</t>
+  </si>
+  <si>
+    <t>#A5CD00</t>
+  </si>
+  <si>
+    <t>#BDD35B</t>
+  </si>
+  <si>
+    <t>#43AB4A</t>
+  </si>
+  <si>
+    <t>#9EB832</t>
+  </si>
+  <si>
+    <t>#728424</t>
+  </si>
+  <si>
+    <t>#B5CFE3</t>
+  </si>
+  <si>
+    <t>#4690C5</t>
+  </si>
+  <si>
+    <t>#95BBD7</t>
+  </si>
+  <si>
+    <t>#77A7CB</t>
+  </si>
+  <si>
+    <t>#508EBC</t>
+  </si>
+  <si>
+    <t>#3D76A1</t>
+  </si>
+  <si>
+    <t>#376A91</t>
+  </si>
+  <si>
+    <t>#2F5C7D</t>
+  </si>
+  <si>
+    <t>#264964</t>
+  </si>
+  <si>
+    <t>#EFC3D6</t>
+  </si>
+  <si>
+    <t>#E69CBA</t>
+  </si>
+  <si>
+    <t>#E7A3C0</t>
+  </si>
+  <si>
+    <t>#E088AE</t>
+  </si>
+  <si>
+    <t>#D96D9B</t>
+  </si>
+  <si>
+    <t>#D4588D</t>
+  </si>
+  <si>
+    <t>#CD3B7A</t>
+  </si>
+  <si>
+    <t>#C1316F</t>
+  </si>
+  <si>
+    <t>#A82A60</t>
+  </si>
+  <si>
+    <t>#902452</t>
+  </si>
+  <si>
+    <t>#7B1F46</t>
+  </si>
+  <si>
+    <t>#ECE763</t>
+  </si>
+  <si>
+    <t>#EBAF48</t>
+  </si>
+  <si>
+    <t>#E8E040</t>
+  </si>
+  <si>
+    <t>#E3D91B</t>
+  </si>
+  <si>
+    <t>#C6BE18</t>
+  </si>
+  <si>
+    <t>#9D9613</t>
+  </si>
+  <si>
+    <t>#898311</t>
+  </si>
+  <si>
+    <t>#7B760F</t>
+  </si>
+  <si>
+    <t>#69650D</t>
+  </si>
+  <si>
+    <t>#CBBB8E</t>
+  </si>
+  <si>
+    <t>#AA8C60</t>
+  </si>
+  <si>
+    <t>#BDA96F</t>
+  </si>
+  <si>
+    <t>#AC934E</t>
+  </si>
+  <si>
+    <t>#968144</t>
+  </si>
+  <si>
+    <t>#87743D</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B2366-7966-4E5A-8FC2-E2237C5ED9DD}">
   <dimension ref="A1:J3191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1548,10 +1565,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1563,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1574,114 +1591,114 @@
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>154</v>
-      </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>25</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="1">
         <v>298</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="54" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I6" s="55" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
       <c r="H7" s="2">
         <v>22800</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1689,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1703,22 +1720,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
         <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>3</v>
@@ -1729,22 +1746,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1752,22 +1769,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="50">
-        <v>728424</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1775,22 +1792,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1798,22 +1815,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1821,19 +1838,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1842,19 +1859,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -1863,19 +1880,19 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -1884,19 +1901,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -1905,22 +1922,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1928,520 +1945,520 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="47">
-        <v>264964</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" s="38">
-        <v>902452</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>147</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="G34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C37" s="27">
-        <v>898311</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="20">
-        <v>968144</v>
+        <v>105</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H44" s="5"/>
     </row>

--- a/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
+++ b/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91FC140-6459-4FA1-87DE-40A473AEEF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6520AA52-D8A4-464B-8B3C-A5B6169069B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="169">
   <si>
     <t>Sector</t>
   </si>
@@ -523,13 +523,31 @@
   </si>
   <si>
     <t>#87743D</t>
+  </si>
+  <si>
+    <t>1 - Energía (ton CO2e)</t>
+  </si>
+  <si>
+    <t>2 - Procesos industriales (ton CO2e)</t>
+  </si>
+  <si>
+    <t>3 - Agricultura (ton CO2e)</t>
+  </si>
+  <si>
+    <t>4 - Usos de la tierra, cambios en el uso de la tierra y silvicultura (ton CO2e)</t>
+  </si>
+  <si>
+    <t>5 - Residuos (ton CO2e)</t>
+  </si>
+  <si>
+    <t>Sector2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +617,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1161,11 +1185,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5746E618-926C-4368-93AC-6FEAA137A5FB}" name="A_SECTOR" displayName="A_SECTOR" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6" xr:uid="{85940289-DD57-4A8C-A71E-16623908952D}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5746E618-926C-4368-93AC-6FEAA137A5FB}" name="A_SECTOR" displayName="A_SECTOR" ref="O1:S6" totalsRowShown="0">
+  <autoFilter ref="O1:S6" xr:uid="{85940289-DD57-4A8C-A71E-16623908952D}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5424DE7F-BD55-4177-83BB-64E29E3454D3}" name="Sector"/>
     <tableColumn id="2" xr3:uid="{549D6248-2E90-4957-893D-FFDC86F70A7F}" name="Sector1"/>
+    <tableColumn id="5" xr3:uid="{9D4D1E98-4E55-43C7-9277-E7A0A6129111}" name="Sector2"/>
     <tableColumn id="3" xr3:uid="{B86482DF-F68B-4708-9F9D-B53056E36144}" name="Color"/>
     <tableColumn id="4" xr3:uid="{CAB8128E-5F8C-460A-A918-560C6D484883}" name="Imagen"/>
   </tableColumns>
@@ -1187,8 +1212,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30256A94-9D79-424A-A873-A19343C50F1C}" name="A_GASES" displayName="A_GASES" ref="F1:J7" totalsRowShown="0">
-  <autoFilter ref="F1:J7" xr:uid="{8AEDEF5F-E169-488F-A506-86FA4380C2ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30256A94-9D79-424A-A873-A19343C50F1C}" name="A_GASES" displayName="A_GASES" ref="H1:L7" totalsRowShown="0">
+  <autoFilter ref="H1:L7" xr:uid="{8AEDEF5F-E169-488F-A506-86FA4380C2ED}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{15632AE1-8D0D-4D5B-A3B7-3A54BE4CF83B}" name="Gas"/>
     <tableColumn id="2" xr3:uid="{0F50CB01-AE9F-4A03-B3C2-1A228744C2A5}" name="Gas de Efecto Invernadero"/>
@@ -1201,8 +1226,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2A46E06-165C-468D-A99A-F03426F8233F}" name="A_GAS_FUENTE_ACT" displayName="A_GAS_FUENTE_ACT" ref="F11:I44" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="F11:I44" xr:uid="{63512443-C62C-40B5-9ECF-4007A8898D8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2A46E06-165C-468D-A99A-F03426F8233F}" name="A_GAS_FUENTE_ACT" displayName="A_GAS_FUENTE_ACT" ref="H11:K44" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="H11:K44" xr:uid="{63512443-C62C-40B5-9ECF-4007A8898D8C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0095B692-CBAF-4735-81F1-F054AEAF9E0B}" name="Gas de Efecto Invernadero" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{C5DEA102-F34D-451E-AC44-80758EAB2B97}" name="Fuente" dataDxfId="1"/>
@@ -1510,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B2366-7966-4E5A-8FC2-E2237C5ED9DD}">
-  <dimension ref="A1:J3191"/>
+  <dimension ref="A1:S3191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,187 +1546,217 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="52.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" customWidth="1"/>
+    <col min="4" max="6" width="33.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.21875" customWidth="1"/>
+    <col min="16" max="16" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Q1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="Q2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="S2" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1">
+        <v>25</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="P3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="Q3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="S3" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>298</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="S5" s="57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1">
-        <v>298</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="Q6" t="s">
+        <v>167</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="S6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>22800</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="K7" s="56" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1770,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1728,20 +1783,22 @@
       <c r="D11" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="H11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1754,17 +1811,19 @@
       <c r="D12" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="H12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1777,17 +1836,19 @@
       <c r="D13" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1800,17 +1861,19 @@
       <c r="D14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1823,17 +1886,19 @@
       <c r="D15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1846,15 +1911,17 @@
       <c r="D16" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1867,15 +1934,17 @@
       <c r="D17" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1888,15 +1957,17 @@
       <c r="D18" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1909,15 +1980,17 @@
       <c r="D19" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="H19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1930,17 +2003,19 @@
       <c r="D20" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1953,17 +2028,19 @@
       <c r="D21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="H21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1976,17 +2053,19 @@
       <c r="D22" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="H22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1999,15 +2078,17 @@
       <c r="D23" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="H23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -2020,15 +2101,17 @@
       <c r="D24" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="H24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -2041,15 +2124,17 @@
       <c r="D25" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -2062,17 +2147,19 @@
       <c r="D26" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -2085,17 +2172,19 @@
       <c r="D27" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -2108,17 +2197,19 @@
       <c r="D28" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="H28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -2131,17 +2222,19 @@
       <c r="D29" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="H29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -2154,15 +2247,17 @@
       <c r="D30" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2175,15 +2270,17 @@
       <c r="D31" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -2196,13 +2293,15 @@
       <c r="D32" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="H32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
@@ -2215,17 +2314,19 @@
       <c r="D33" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="H33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
@@ -2238,15 +2339,17 @@
       <c r="D34" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="H34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2259,17 +2362,19 @@
       <c r="D35" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="H35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -2282,15 +2387,17 @@
       <c r="D36" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="H36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -2303,15 +2410,17 @@
       <c r="D37" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="H37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -2324,15 +2433,17 @@
       <c r="D38" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="H38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>19</v>
       </c>
@@ -2345,15 +2456,17 @@
       <c r="D39" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="H39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
@@ -2366,17 +2479,19 @@
       <c r="D40" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="H40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2389,17 +2504,19 @@
       <c r="D41" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="H41" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
@@ -2412,15 +2529,17 @@
       <c r="D42" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="H42" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
@@ -2433,15 +2552,17 @@
       <c r="D43" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="H43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -2454,162 +2575,165 @@
       <c r="D44" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="H44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="2264" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2264" s="6"/>
-    </row>
-    <row r="2265" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2265" s="6"/>
-    </row>
-    <row r="2266" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2266" s="6"/>
-    </row>
-    <row r="2267" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2267" s="6"/>
-    </row>
-    <row r="2268" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2268" s="6"/>
-    </row>
-    <row r="2269" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2269" s="6"/>
-    </row>
-    <row r="2270" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2270" s="6"/>
-    </row>
-    <row r="2271" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2271" s="6"/>
-    </row>
-    <row r="2272" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2272" s="6"/>
-    </row>
-    <row r="2273" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2273" s="6"/>
-    </row>
-    <row r="2274" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2274" s="6"/>
-    </row>
-    <row r="2275" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2275" s="6"/>
-    </row>
-    <row r="2276" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2276" s="6"/>
-    </row>
-    <row r="2277" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2277" s="6"/>
-    </row>
-    <row r="2278" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2278" s="6"/>
-    </row>
-    <row r="2279" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2279" s="6"/>
-    </row>
-    <row r="2280" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2280" s="6"/>
-    </row>
-    <row r="2281" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2281" s="6"/>
-    </row>
-    <row r="2282" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2282" s="6"/>
-    </row>
-    <row r="2283" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2283" s="6"/>
-    </row>
-    <row r="2284" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2284" s="6"/>
-    </row>
-    <row r="2285" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2285" s="6"/>
-    </row>
-    <row r="2286" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2286" s="6"/>
-    </row>
-    <row r="2287" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2287" s="6"/>
-    </row>
-    <row r="2288" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2288" s="6"/>
-    </row>
-    <row r="2289" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2289" s="6"/>
-    </row>
-    <row r="2290" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2290" s="6"/>
-    </row>
-    <row r="2385" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2385" s="6"/>
-    </row>
-    <row r="2388" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2388" s="6"/>
-    </row>
-    <row r="2430" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2430" s="6"/>
-    </row>
-    <row r="3175" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3175" s="6"/>
-    </row>
-    <row r="3176" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3176" s="6"/>
-    </row>
-    <row r="3177" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3177" s="6"/>
-    </row>
-    <row r="3178" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3178" s="6"/>
-    </row>
-    <row r="3179" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3179" s="6"/>
-    </row>
-    <row r="3180" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3180" s="6"/>
-    </row>
-    <row r="3181" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3181" s="6"/>
-    </row>
-    <row r="3182" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3182" s="6"/>
-    </row>
-    <row r="3183" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3183" s="6"/>
-    </row>
-    <row r="3184" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3184" s="6"/>
-    </row>
-    <row r="3185" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3185" s="6"/>
-    </row>
-    <row r="3186" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3186" s="6"/>
-    </row>
-    <row r="3187" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3187" s="6"/>
-    </row>
-    <row r="3188" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3188" s="6"/>
-    </row>
-    <row r="3189" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3189" s="6"/>
-    </row>
-    <row r="3190" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3190" s="6"/>
-    </row>
-    <row r="3191" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3191" s="6"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="2264" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2264" s="6"/>
+    </row>
+    <row r="2265" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2265" s="6"/>
+    </row>
+    <row r="2266" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2266" s="6"/>
+    </row>
+    <row r="2267" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2267" s="6"/>
+    </row>
+    <row r="2268" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2268" s="6"/>
+    </row>
+    <row r="2269" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2269" s="6"/>
+    </row>
+    <row r="2270" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2270" s="6"/>
+    </row>
+    <row r="2271" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2271" s="6"/>
+    </row>
+    <row r="2272" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2272" s="6"/>
+    </row>
+    <row r="2273" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2273" s="6"/>
+    </row>
+    <row r="2274" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2274" s="6"/>
+    </row>
+    <row r="2275" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2275" s="6"/>
+    </row>
+    <row r="2276" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2276" s="6"/>
+    </row>
+    <row r="2277" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2277" s="6"/>
+    </row>
+    <row r="2278" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2278" s="6"/>
+    </row>
+    <row r="2279" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2279" s="6"/>
+    </row>
+    <row r="2280" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2280" s="6"/>
+    </row>
+    <row r="2281" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2281" s="6"/>
+    </row>
+    <row r="2282" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2282" s="6"/>
+    </row>
+    <row r="2283" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2283" s="6"/>
+    </row>
+    <row r="2284" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2284" s="6"/>
+    </row>
+    <row r="2285" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2285" s="6"/>
+    </row>
+    <row r="2286" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2286" s="6"/>
+    </row>
+    <row r="2287" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2287" s="6"/>
+    </row>
+    <row r="2288" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2288" s="6"/>
+    </row>
+    <row r="2289" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2289" s="6"/>
+    </row>
+    <row r="2290" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2290" s="6"/>
+    </row>
+    <row r="2385" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2385" s="6"/>
+    </row>
+    <row r="2388" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2388" s="6"/>
+    </row>
+    <row r="2430" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I2430" s="6"/>
+    </row>
+    <row r="3175" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3175" s="6"/>
+    </row>
+    <row r="3176" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3176" s="6"/>
+    </row>
+    <row r="3177" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3177" s="6"/>
+    </row>
+    <row r="3178" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3178" s="6"/>
+    </row>
+    <row r="3179" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3179" s="6"/>
+    </row>
+    <row r="3180" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3180" s="6"/>
+    </row>
+    <row r="3181" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3181" s="6"/>
+    </row>
+    <row r="3182" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3182" s="6"/>
+    </row>
+    <row r="3183" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3183" s="6"/>
+    </row>
+    <row r="3184" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3184" s="6"/>
+    </row>
+    <row r="3185" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3185" s="6"/>
+    </row>
+    <row r="3186" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3186" s="6"/>
+    </row>
+    <row r="3187" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3187" s="6"/>
+    </row>
+    <row r="3188" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3188" s="6"/>
+    </row>
+    <row r="3189" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3189" s="6"/>
+    </row>
+    <row r="3190" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3190" s="6"/>
+    </row>
+    <row r="3191" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I3191" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{EF526643-0B63-4057-BC96-F9E2EF77A99D}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{EC3E5898-988F-47BE-9205-04A623E7EE27}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{F8E66624-EB07-4331-B590-206378527CEE}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{DA40059D-F901-481F-8021-A4A3D40EEAE2}"/>
-    <hyperlink ref="D2" r:id="rId5" xr:uid="{CA68A923-6D55-425D-89A5-60DEBD343927}"/>
+    <hyperlink ref="S5" r:id="rId1" xr:uid="{EF526643-0B63-4057-BC96-F9E2EF77A99D}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{EC3E5898-988F-47BE-9205-04A623E7EE27}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{F8E66624-EB07-4331-B590-206378527CEE}"/>
+    <hyperlink ref="S6" r:id="rId4" xr:uid="{DA40059D-F901-481F-8021-A4A3D40EEAE2}"/>
+    <hyperlink ref="S2" r:id="rId5" xr:uid="{CA68A923-6D55-425D-89A5-60DEBD343927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="4">

--- a/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
+++ b/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6520AA52-D8A4-464B-8B3C-A5B6169069B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D483FC-2793-4038-9314-B3F63AD37BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
+    <workbookView xWindow="2088" yWindow="3000" windowWidth="17280" windowHeight="9072" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1537,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B2366-7966-4E5A-8FC2-E2237C5ED9DD}">
   <dimension ref="A1:S3191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
+++ b/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D483FC-2793-4038-9314-B3F63AD37BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE6DB4-58B5-402D-B6E5-CBF4608D02EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="3000" windowWidth="17280" windowHeight="9072" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1537,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B2366-7966-4E5A-8FC2-E2237C5ED9DD}">
   <dimension ref="A1:S3191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
+++ b/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE6DB4-58B5-402D-B6E5-CBF4608D02EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B46A78-D429-4111-B853-36B4B6C472BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="169">
   <si>
     <t>Sector</t>
   </si>
@@ -279,9 +279,6 @@
     <t>4.B - Tierras de cultivo</t>
   </si>
   <si>
-    <t>Carburos Hidrofluorados (HFC) y</t>
-  </si>
-  <si>
     <t>Sistemas de refrigeración</t>
   </si>
   <si>
@@ -541,6 +538,9 @@
   </si>
   <si>
     <t>Sector2</t>
+  </si>
+  <si>
+    <t>Carburos Hidrofluorados (HFC)</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1111,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1202,10 +1205,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{28A22E17-3351-455B-B5CF-D058FF685FEC}" name="A_SECTOR_PROCESO" displayName="A_SECTOR_PROCESO" ref="A10:D44" totalsRowShown="0">
   <autoFilter ref="A10:D44" xr:uid="{81376988-1354-4262-91BE-CBA673C9243C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{485C184E-C6BB-4A95-B5CC-73757DB22E25}" name="Sector" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{22016654-B173-4EBB-9CDA-232259300D66}" name="Procesos" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{485C184E-C6BB-4A95-B5CC-73757DB22E25}" name="Sector" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{22016654-B173-4EBB-9CDA-232259300D66}" name="Procesos" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{E9A4B6B2-3ADD-4D98-BB67-E1ED7216A7C4}" name="Color"/>
-    <tableColumn id="4" xr3:uid="{C9F48DDD-9881-4E1E-A0EF-48C1724AC5EC}" name="Color Letra" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C9F48DDD-9881-4E1E-A0EF-48C1724AC5EC}" name="Color Letra" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1217,7 +1220,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{15632AE1-8D0D-4D5B-A3B7-3A54BE4CF83B}" name="Gas"/>
     <tableColumn id="2" xr3:uid="{0F50CB01-AE9F-4A03-B3C2-1A228744C2A5}" name="Gas de Efecto Invernadero"/>
-    <tableColumn id="3" xr3:uid="{0365581E-6F28-474A-97F6-F5EB0117DB53}" name="Potencial Calentamiento Global" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0365581E-6F28-474A-97F6-F5EB0117DB53}" name="Potencial Calentamiento Global" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{9E4C0A17-48EE-4A0F-B553-7BED1F46BA88}" name="Color"/>
     <tableColumn id="5" xr3:uid="{92187032-A5CB-455E-A79D-CFF7697F1B68}" name="Imagen"/>
   </tableColumns>
@@ -1226,13 +1229,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2A46E06-165C-468D-A99A-F03426F8233F}" name="A_GAS_FUENTE_ACT" displayName="A_GAS_FUENTE_ACT" ref="H11:K44" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="H11:K44" xr:uid="{63512443-C62C-40B5-9ECF-4007A8898D8C}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0095B692-CBAF-4735-81F1-F054AEAF9E0B}" name="Gas de Efecto Invernadero" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C5DEA102-F34D-451E-AC44-80758EAB2B97}" name="Fuente" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{242FA882-3280-4656-A0AA-45262C1F6B52}" name="Actividad" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2A46E06-165C-468D-A99A-F03426F8233F}" name="A_GAS_FUENTE_ACT" displayName="A_GAS_FUENTE_ACT" ref="H11:L43" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="H11:L43" xr:uid="{63512443-C62C-40B5-9ECF-4007A8898D8C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0095B692-CBAF-4735-81F1-F054AEAF9E0B}" name="Gas de Efecto Invernadero" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C5DEA102-F34D-451E-AC44-80758EAB2B97}" name="Fuente" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{242FA882-3280-4656-A0AA-45262C1F6B52}" name="Actividad" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{D345118D-751D-49B1-A1C1-A3A3AC13690C}" name="Imagen"/>
+    <tableColumn id="5" xr3:uid="{DE79A335-66C7-47FB-AA5A-04DB27135ECE}" name="Gas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1537,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B2366-7966-4E5A-8FC2-E2237C5ED9DD}">
   <dimension ref="A1:S3191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,7 +1552,7 @@
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="6" width="33.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" customWidth="1"/>
     <col min="9" max="9" width="52.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.21875" customWidth="1"/>
     <col min="16" max="16" width="52.6640625" bestFit="1" customWidth="1"/>
@@ -1578,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
@@ -1600,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O2" t="s">
         <v>7</v>
@@ -1609,13 +1613,13 @@
         <v>8</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1631,7 +1635,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O3" t="s">
         <v>11</v>
@@ -1640,13 +1644,13 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S3" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1662,7 +1666,7 @@
         <v>298</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O4" t="s">
         <v>15</v>
@@ -1671,13 +1675,13 @@
         <v>16</v>
       </c>
       <c r="Q4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1693,7 +1697,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O5" t="s">
         <v>19</v>
@@ -1702,13 +1706,13 @@
         <v>20</v>
       </c>
       <c r="Q5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S5" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1724,7 +1728,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
@@ -1733,13 +1737,13 @@
         <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S6" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1753,7 +1757,7 @@
         <v>22800</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1767,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1778,10 +1782,10 @@
         <v>32</v>
       </c>
       <c r="C11" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1797,6 +1801,9 @@
       <c r="K11" t="s">
         <v>3</v>
       </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1806,10 +1813,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1822,6 +1829,9 @@
       <c r="J12" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1831,10 +1841,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1847,6 +1857,9 @@
       <c r="J13" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1856,10 +1869,10 @@
         <v>42</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1872,6 +1885,9 @@
       <c r="J14" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1881,10 +1897,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1897,6 +1913,9 @@
       <c r="J15" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1906,10 +1925,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1920,8 +1939,11 @@
         <v>38</v>
       </c>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1929,10 +1951,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1943,8 +1965,11 @@
         <v>41</v>
       </c>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1952,10 +1977,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -1966,8 +1991,11 @@
         <v>15</v>
       </c>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1975,10 +2003,10 @@
         <v>50</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -1989,8 +2017,11 @@
         <v>46</v>
       </c>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1998,10 +2029,10 @@
         <v>51</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -2014,8 +2045,11 @@
       <c r="J20" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -2023,10 +2057,10 @@
         <v>54</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -2039,8 +2073,11 @@
       <c r="J21" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -2048,10 +2085,10 @@
         <v>57</v>
       </c>
       <c r="C22" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -2064,8 +2101,11 @@
       <c r="J22" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -2073,10 +2113,10 @@
         <v>60</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2087,8 +2127,11 @@
         <v>53</v>
       </c>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -2096,10 +2139,10 @@
         <v>61</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2110,8 +2153,11 @@
         <v>56</v>
       </c>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -2119,10 +2165,10 @@
         <v>62</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -2133,8 +2179,11 @@
         <v>59</v>
       </c>
       <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -2142,10 +2191,10 @@
         <v>63</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -2158,8 +2207,11 @@
       <c r="J26" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -2167,10 +2219,10 @@
         <v>67</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -2183,8 +2235,11 @@
       <c r="J27" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -2192,10 +2247,10 @@
         <v>69</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -2208,8 +2263,11 @@
       <c r="J28" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -2217,10 +2275,10 @@
         <v>72</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -2233,8 +2291,11 @@
       <c r="J29" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -2242,10 +2303,10 @@
         <v>75</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -2256,8 +2317,11 @@
         <v>76</v>
       </c>
       <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2265,10 +2329,10 @@
         <v>77</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -2279,8 +2343,11 @@
         <v>78</v>
       </c>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -2288,20 +2355,27 @@
         <v>79</v>
       </c>
       <c r="C32" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="H32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
@@ -2309,281 +2383,309 @@
         <v>80</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="H33" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="5"/>
+      <c r="L33" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="H34" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="H35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="H36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="H37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="H38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="H39" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>158</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="H40" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="H41" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="H42" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L42" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="H43" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L43" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="H44" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="2264" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I2264" s="6"/>

--- a/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
+++ b/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B46A78-D429-4111-B853-36B4B6C472BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B41D5-2B60-4F36-9FCD-5B2E1EAC6BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
   </bookViews>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B2366-7966-4E5A-8FC2-E2237C5ED9DD}">
   <dimension ref="A1:S3191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
+++ b/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B41D5-2B60-4F36-9FCD-5B2E1EAC6BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6242466B-4ED4-4F65-B2B1-3FCE5199C513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="181">
   <si>
     <t>Sector</t>
   </si>
@@ -138,9 +129,6 @@
     <t>Fuente</t>
   </si>
   <si>
-    <t>Actividad</t>
-  </si>
-  <si>
     <t>1.B - Emisiones fugitivas de combustibles</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>Quema de combustibles fósiles (petróleo, carbón y gas natural)</t>
   </si>
   <si>
-    <t>Transporte y generación térmica</t>
-  </si>
-  <si>
     <t>1.C - Transporte y almacenamiento de CO2</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
     <t>Botaderos de basura</t>
   </si>
   <si>
-    <t>Descomposición de desechos orgánicos</t>
-  </si>
-  <si>
     <t>2.H - Otros</t>
   </si>
   <si>
@@ -231,27 +213,15 @@
     <t>Oxido Nitroso (N2O)</t>
   </si>
   <si>
-    <t>Combustión de automóviles</t>
-  </si>
-  <si>
     <t>Transporte</t>
   </si>
   <si>
     <t>3.F - Quema de residuos agrícola en el campo</t>
   </si>
   <si>
-    <t>Fertilizantes</t>
-  </si>
-  <si>
     <t>3.G - Encalado</t>
   </si>
   <si>
-    <t>Alimento de ganado</t>
-  </si>
-  <si>
-    <t>Industrias</t>
-  </si>
-  <si>
     <t>3.H - Aplicación de urea</t>
   </si>
   <si>
@@ -264,15 +234,9 @@
     <t>3.I - Otros fertilizantes que contienen carbono</t>
   </si>
   <si>
-    <t>Estiércol</t>
-  </si>
-  <si>
     <t>3.J - Otros</t>
   </si>
   <si>
-    <t>Desechos sólidos</t>
-  </si>
-  <si>
     <t>4.A - Tierras forestales</t>
   </si>
   <si>
@@ -288,36 +252,18 @@
     <t>4.C - Pastizales</t>
   </si>
   <si>
-    <t>Carbonos Perfluorados (PFC)</t>
-  </si>
-  <si>
     <t>4.D - Humedales</t>
   </si>
   <si>
-    <t>Clorofluorocarbonos (CFC)</t>
-  </si>
-  <si>
-    <t>Sector Industrial</t>
-  </si>
-  <si>
     <t>4.E - Asentamientos</t>
   </si>
   <si>
-    <t>Plástica</t>
-  </si>
-  <si>
     <t>4.F - Otras tierras</t>
   </si>
   <si>
-    <t>Aerosoles</t>
-  </si>
-  <si>
     <t>4.G - Productos de madera recolectada</t>
   </si>
   <si>
-    <t>Electrónica</t>
-  </si>
-  <si>
     <t>4.H - Otros</t>
   </si>
   <si>
@@ -327,21 +273,12 @@
     <t>Hexafluoruro de azufre (SF6)</t>
   </si>
   <si>
-    <t>Aislante, eléctrico y estabilizante</t>
-  </si>
-  <si>
-    <t>Sistema interconectado de redes eléctricas</t>
-  </si>
-  <si>
     <t>5.B - Tratamiento biológico de residuos sólidos</t>
   </si>
   <si>
     <t>Interruptores eléctricos (breakers)</t>
   </si>
   <si>
-    <t>Extintores de incendios</t>
-  </si>
-  <si>
     <t>5.C - Incineración y quema abierta de residuos</t>
   </si>
   <si>
@@ -541,6 +478,96 @@
   </si>
   <si>
     <t>Carburos Hidrofluorados (HFC)</t>
+  </si>
+  <si>
+    <t>Cultivo de arroz</t>
+  </si>
+  <si>
+    <t>Tratamiento de agua residuales</t>
+  </si>
+  <si>
+    <t>Actividad o Industria</t>
+  </si>
+  <si>
+    <t>Incendios forestales</t>
+  </si>
+  <si>
+    <t>Minería del cobre</t>
+  </si>
+  <si>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>Cultivo de suelos</t>
+  </si>
+  <si>
+    <t>Generación térmica</t>
+  </si>
+  <si>
+    <t>Combustión en automóviles</t>
+  </si>
+  <si>
+    <t>Alimento para ganado</t>
+  </si>
+  <si>
+    <t>Quema de biomasa</t>
+  </si>
+  <si>
+    <t>Gestión del estiércol</t>
+  </si>
+  <si>
+    <t>Tratamiento de residuos orgánicos</t>
+  </si>
+  <si>
+    <t>Disposición de residuos</t>
+  </si>
+  <si>
+    <t>Compostaje</t>
+  </si>
+  <si>
+    <t>Industria alimentaria</t>
+  </si>
+  <si>
+    <t>Fabricación de plásticos</t>
+  </si>
+  <si>
+    <t>Industria del plástico</t>
+  </si>
+  <si>
+    <t>Fabricación de aerosoles</t>
+  </si>
+  <si>
+    <t>Industria electrónica</t>
+  </si>
+  <si>
+    <t>Aire acondicionado</t>
+  </si>
+  <si>
+    <t>Limpieza con solventes</t>
+  </si>
+  <si>
+    <t>Industria química</t>
+  </si>
+  <si>
+    <t>Fabricación de semiconductores</t>
+  </si>
+  <si>
+    <t>Industria eléctrica</t>
+  </si>
+  <si>
+    <t>Extinción de incendios</t>
+  </si>
+  <si>
+    <t>Industria metalúrgica</t>
+  </si>
+  <si>
+    <t>Aleaciones metálicas</t>
+  </si>
+  <si>
+    <t>Aislante eléctrico y estabilizante</t>
+  </si>
+  <si>
+    <t>Fugas en industria eléctrica</t>
   </si>
 </sst>
 </file>
@@ -1229,12 +1256,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2A46E06-165C-468D-A99A-F03426F8233F}" name="A_GAS_FUENTE_ACT" displayName="A_GAS_FUENTE_ACT" ref="H11:L43" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="H11:L43" xr:uid="{63512443-C62C-40B5-9ECF-4007A8898D8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2A46E06-165C-468D-A99A-F03426F8233F}" name="A_GAS_FUENTE_ACT" displayName="A_GAS_FUENTE_ACT" ref="H11:L42" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="H11:L42" xr:uid="{63512443-C62C-40B5-9ECF-4007A8898D8C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0095B692-CBAF-4735-81F1-F054AEAF9E0B}" name="Gas de Efecto Invernadero" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C5DEA102-F34D-451E-AC44-80758EAB2B97}" name="Fuente" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{242FA882-3280-4656-A0AA-45262C1F6B52}" name="Actividad" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{242FA882-3280-4656-A0AA-45262C1F6B52}" name="Actividad o Industria" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{D345118D-751D-49B1-A1C1-A3A3AC13690C}" name="Imagen"/>
     <tableColumn id="5" xr3:uid="{DE79A335-66C7-47FB-AA5A-04DB27135ECE}" name="Gas" dataDxfId="0"/>
   </tableColumns>
@@ -1539,27 +1566,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B2366-7966-4E5A-8FC2-E2237C5ED9DD}">
-  <dimension ref="A1:S3191"/>
+  <dimension ref="A1:S3190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="6" width="33.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" customWidth="1"/>
-    <col min="9" max="9" width="52.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.21875" customWidth="1"/>
-    <col min="16" max="16" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" customWidth="1"/>
+    <col min="9" max="9" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="16" max="16" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
@@ -1591,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
       <c r="H2" t="s">
@@ -1604,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="O2" t="s">
         <v>7</v>
@@ -1613,16 +1640,16 @@
         <v>8</v>
       </c>
       <c r="Q2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
       <c r="H3" t="s">
@@ -1635,7 +1662,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
         <v>11</v>
@@ -1644,16 +1671,16 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="S3" s="57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E4" s="57"/>
       <c r="F4" s="57"/>
       <c r="H4" t="s">
@@ -1666,7 +1693,7 @@
         <v>298</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
         <v>15</v>
@@ -1675,16 +1702,16 @@
         <v>16</v>
       </c>
       <c r="Q4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E5" s="57"/>
       <c r="F5" s="57"/>
       <c r="H5" t="s">
@@ -1697,7 +1724,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
         <v>19</v>
@@ -1706,16 +1733,16 @@
         <v>20</v>
       </c>
       <c r="Q5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="S5" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
       <c r="H6" t="s">
@@ -1728,7 +1755,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
@@ -1737,16 +1764,16 @@
         <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="S6" s="57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>29</v>
       </c>
@@ -1757,10 +1784,10 @@
         <v>22800</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1771,10 +1798,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1782,10 +1809,10 @@
         <v>32</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1796,7 +1823,7 @@
         <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
@@ -1805,82 +1832,82 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="H12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="H14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>15</v>
@@ -1889,150 +1916,156 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="H15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="H16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>158</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="H17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="L17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="H18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="5"/>
       <c r="L18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="H19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J19" s="5"/>
       <c r="L19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -2040,27 +2073,27 @@
         <v>14</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -2068,27 +2101,27 @@
         <v>14</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -2096,27 +2129,27 @@
         <v>14</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2124,25 +2157,25 @@
         <v>14</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="J23" s="5"/>
       <c r="L23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2150,25 +2183,27 @@
         <v>14</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -2176,61 +2211,63 @@
         <v>14</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="L25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="H26" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="H27" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>15</v>
@@ -2239,594 +2276,592 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="H28" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="H29" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="H30" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="H31" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="J31" s="5"/>
       <c r="L31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="H32" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="H33" s="5" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="J33" s="5"/>
       <c r="L33" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="H34" s="5" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="H35" s="5" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="J35" s="5"/>
       <c r="L35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="H36" s="5" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="L36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="H37" s="5" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="L37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="H38" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="L38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="H39" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="H40" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J40" s="5"/>
       <c r="L40" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="H41" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="L41" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="H42" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="J42" s="5"/>
       <c r="L42" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="H43" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="L43" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="2264" spans="9:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2263" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I2263" s="6"/>
+    </row>
+    <row r="2264" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2264" s="6"/>
     </row>
-    <row r="2265" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2265" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2265" s="6"/>
     </row>
-    <row r="2266" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2266" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2266" s="6"/>
     </row>
-    <row r="2267" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2267" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2267" s="6"/>
     </row>
-    <row r="2268" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2268" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2268" s="6"/>
     </row>
-    <row r="2269" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2269" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2269" s="6"/>
     </row>
-    <row r="2270" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2270" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2270" s="6"/>
     </row>
-    <row r="2271" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2271" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2271" s="6"/>
     </row>
-    <row r="2272" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2272" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2272" s="6"/>
     </row>
-    <row r="2273" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2273" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2273" s="6"/>
     </row>
-    <row r="2274" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2274" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2274" s="6"/>
     </row>
-    <row r="2275" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2275" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2275" s="6"/>
     </row>
-    <row r="2276" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2276" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2276" s="6"/>
     </row>
-    <row r="2277" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2277" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2277" s="6"/>
     </row>
-    <row r="2278" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2278" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2278" s="6"/>
     </row>
-    <row r="2279" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2279" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2279" s="6"/>
     </row>
-    <row r="2280" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2280" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2280" s="6"/>
     </row>
-    <row r="2281" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2281" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2281" s="6"/>
     </row>
-    <row r="2282" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2282" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2282" s="6"/>
     </row>
-    <row r="2283" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2283" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2283" s="6"/>
     </row>
-    <row r="2284" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2284" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2284" s="6"/>
     </row>
-    <row r="2285" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2285" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2285" s="6"/>
     </row>
-    <row r="2286" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2286" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2286" s="6"/>
     </row>
-    <row r="2287" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2287" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2287" s="6"/>
     </row>
-    <row r="2288" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2288" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2288" s="6"/>
     </row>
-    <row r="2289" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2289" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I2289" s="6"/>
     </row>
-    <row r="2290" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I2290" s="6"/>
-    </row>
-    <row r="2385" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I2385" s="6"/>
-    </row>
-    <row r="2388" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I2388" s="6"/>
-    </row>
-    <row r="2430" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I2430" s="6"/>
-    </row>
-    <row r="3175" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="2384" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I2384" s="6"/>
+    </row>
+    <row r="2387" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I2387" s="6"/>
+    </row>
+    <row r="2429" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I2429" s="6"/>
+    </row>
+    <row r="3174" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I3174" s="6"/>
+    </row>
+    <row r="3175" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3175" s="6"/>
     </row>
-    <row r="3176" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3176" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3176" s="6"/>
     </row>
-    <row r="3177" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3177" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3177" s="6"/>
     </row>
-    <row r="3178" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3178" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3178" s="6"/>
     </row>
-    <row r="3179" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3179" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3179" s="6"/>
     </row>
-    <row r="3180" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3180" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3180" s="6"/>
     </row>
-    <row r="3181" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3181" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3181" s="6"/>
     </row>
-    <row r="3182" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3182" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3182" s="6"/>
     </row>
-    <row r="3183" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3183" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3183" s="6"/>
     </row>
-    <row r="3184" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3184" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3184" s="6"/>
     </row>
-    <row r="3185" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3185" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3185" s="6"/>
     </row>
-    <row r="3186" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3186" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3186" s="6"/>
     </row>
-    <row r="3187" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3187" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3187" s="6"/>
     </row>
-    <row r="3188" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3188" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3188" s="6"/>
     </row>
-    <row r="3189" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3189" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3189" s="6"/>
     </row>
-    <row r="3190" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="3190" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I3190" s="6"/>
-    </row>
-    <row r="3191" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I3191" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
+++ b/CHILE/00 Causas Antropógenas/Tablas Generales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\00 Causas Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6242466B-4ED4-4F65-B2B1-3FCE5199C513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E12D42-4AAC-4E73-AA74-8BF265B691C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{820A9747-5961-4BBB-942F-548000284E77}"/>
   </bookViews>
@@ -486,9 +486,6 @@
     <t>Tratamiento de agua residuales</t>
   </si>
   <si>
-    <t>Actividad o Industria</t>
-  </si>
-  <si>
     <t>Incendios forestales</t>
   </si>
   <si>
@@ -568,6 +565,9 @@
   </si>
   <si>
     <t>Fugas en industria eléctrica</t>
+  </si>
+  <si>
+    <t>Actividad</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0095B692-CBAF-4735-81F1-F054AEAF9E0B}" name="Gas de Efecto Invernadero" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C5DEA102-F34D-451E-AC44-80758EAB2B97}" name="Fuente" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{242FA882-3280-4656-A0AA-45262C1F6B52}" name="Actividad o Industria" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{242FA882-3280-4656-A0AA-45262C1F6B52}" name="Actividad" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{D345118D-751D-49B1-A1C1-A3A3AC13690C}" name="Imagen"/>
     <tableColumn id="5" xr3:uid="{DE79A335-66C7-47FB-AA5A-04DB27135ECE}" name="Gas" dataDxfId="0"/>
   </tableColumns>
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:S3190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1823,7 @@
         <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
         <v>9</v>
@@ -1963,7 +1963,7 @@
         <v>35</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>7</v>
@@ -1991,10 +1991,10 @@
         <v>35</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="L17" t="s">
         <v>9</v>
@@ -2019,7 +2019,7 @@
         <v>35</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>15</v>
@@ -2076,7 +2076,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" s="5"/>
       <c r="L23" t="s">
@@ -2214,7 +2214,7 @@
         <v>152</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L25" t="s">
         <v>13</v>
@@ -2239,7 +2239,7 @@
         <v>61</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>62</v>
@@ -2295,10 +2295,10 @@
         <v>61</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -2323,7 +2323,7 @@
         <v>61</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>67</v>
@@ -2351,10 +2351,10 @@
         <v>61</v>
       </c>
       <c r="I30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -2433,7 +2433,7 @@
         <v>150</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J33" s="5"/>
       <c r="L33" s="5" t="s">
@@ -2459,10 +2459,10 @@
         <v>150</v>
       </c>
       <c r="I34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="L34" t="s">
         <v>21</v>
@@ -2487,7 +2487,7 @@
         <v>150</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J35" s="5"/>
       <c r="L35" t="s">
@@ -2513,10 +2513,10 @@
         <v>150</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L36" t="s">
         <v>21</v>
@@ -2541,10 +2541,10 @@
         <v>150</v>
       </c>
       <c r="I37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="L37" t="s">
         <v>21</v>
@@ -2569,10 +2569,10 @@
         <v>81</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>29</v>
@@ -2600,7 +2600,7 @@
         <v>83</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>29</v>
@@ -2651,10 +2651,10 @@
         <v>81</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>29</v>
@@ -2679,7 +2679,7 @@
         <v>81</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J42" s="5"/>
       <c r="L42" s="5" t="s">
